--- a/logsearch/data/error_logs/UC1_UC1_新人_11_copy_19.xlsx
+++ b/logsearch/data/error_logs/UC1_UC1_新人_11_copy_19.xlsx
@@ -515,7 +515,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Asuka Fujii</t>
+          <t>Maaya Kimura</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -548,12 +548,12 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_141958_0.png</t>
+          <t>bdot20240415_141954/1.png</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>「スタート」ボタンをクリックするか、キーボードの「Windowsキー」を押す</t>
+          <t>「スタート」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L2" t="inlineStr"/>
@@ -570,7 +570,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Asuka Fujii</t>
+          <t>Maaya Kimura</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -603,12 +603,12 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/2.png</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>メニューから「設定」アイコン（歯車アイコン）をクリックする</t>
+          <t>メニューから「設定」アイコンをクリックする</t>
         </is>
       </c>
       <c r="L3" t="inlineStr"/>
@@ -625,7 +625,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Asuka Fujii</t>
+          <t>Maaya Kimura</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -658,12 +658,12 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/3.png</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>「更新とセキュリティ」オプションを選択する</t>
+          <t>左側のメニューからWindows Updateをクリックし、Windows Update画面に移動する</t>
         </is>
       </c>
       <c r="L4" t="inlineStr"/>
@@ -675,12 +675,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>operation</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Asuka Fujii</t>
+          <t>Maaya Kimura</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -713,16 +713,24 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/4.png</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>左側のメニューから「Windows Update」をクリックし、Windows Update画面に移動する</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
+          <t>0x80240fff エラー</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Error W</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> エラーの Windows</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -735,7 +743,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Asuka Fujii</t>
+          <t>Maaya Kimura</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -768,12 +776,12 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/5.png</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>「更新プログラムのチェック」ボタンをクリックする</t>
+          <t>デスクトップ画面の左下にある「スタート」ボタンを右クリックする</t>
         </is>
       </c>
       <c r="L6" t="inlineStr"/>
@@ -785,12 +793,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>operation</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Asuka Fujii</t>
+          <t>Maaya Kimura</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -823,24 +831,16 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/5.png</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>0x80244007 エラー</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>Error W</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> エラーの Windows</t>
-        </is>
-      </c>
+          <t>メニューからターミナル(管理者)をクリックする</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -853,7 +853,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Asuka Fujii</t>
+          <t>Maaya Kimura</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -886,12 +886,12 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/6.png</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>デスクトップ画面の左下にある「スタート」ボタンを右クリックし、メニューから「Windows PowerShell(管理者)(A)」をクリックする</t>
+          <t>ユーザーアカウント制御と表示されているウィンドウが開いたことを確認する</t>
         </is>
       </c>
       <c r="L8" t="inlineStr"/>
@@ -908,7 +908,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Asuka Fujii</t>
+          <t>Maaya Kimura</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -941,12 +941,12 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/7.png</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>「管理者：Windows PowerShell」と表示されているウィンドウが開いたことを確認する</t>
+          <t>PowerShellウィンドウに start-transcript と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L9" t="inlineStr"/>
@@ -963,7 +963,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Asuka Fujii</t>
+          <t>Maaya Kimura</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -996,12 +996,12 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/8.png</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>PowerShellウィンドウに Start-Transcript と入力し、[Enter]キーを押す</t>
+          <t>wuauclt.exe /resetauthorization /detectnow と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L10" t="inlineStr"/>
@@ -1018,7 +1018,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Asuka Fujii</t>
+          <t>Maaya Kimura</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1051,12 +1051,12 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/9.png</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>wuauclt.exe /resetauthorization /detectnow と入力し、[Enter]キーを押す</t>
+          <t>netsh winhttp show proxy と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L11" t="inlineStr"/>
@@ -1073,7 +1073,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Asuka Fujii</t>
+          <t>Maaya Kimura</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1106,12 +1106,12 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/10.png</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>netsh winhttp show proxy と入力し、[Enter]キーを押す</t>
+          <t>netsh winhttp reset proxy と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L12" t="inlineStr"/>
@@ -1128,7 +1128,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Asuka Fujii</t>
+          <t>Maaya Kimura</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1161,12 +1161,12 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/1.png</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>netsh winhttp reset proxy と入力し、[Enter]キーを押す</t>
+          <t>「スタート」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L13" t="inlineStr"/>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Asuka Fujii</t>
+          <t>Maaya Kimura</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1216,12 +1216,12 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/2.png</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Windowsの設定画面に戻り、「更新とセキュリティ」→「Windows Update」にアクセスする</t>
+          <t>メニューから「設定」アイコンをクリックする</t>
         </is>
       </c>
       <c r="L14" t="inlineStr"/>
@@ -1238,7 +1238,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Asuka Fujii</t>
+          <t>Maaya Kimura</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1271,12 +1271,12 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/3.png</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>「更新プログラムのチェック」ボタンをクリックする</t>
+          <t>左側のメニューからWindows Updateをクリックし、Windows Update画面に移動する</t>
         </is>
       </c>
       <c r="L15" t="inlineStr"/>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Asuka Fujii</t>
+          <t>Maaya Kimura</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1326,12 +1326,12 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/11.png</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>正常に更新がチェックする</t>
+          <t>「更新プログラムのチェック」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L16" t="inlineStr"/>
